--- a/output/CLFS_sample_input_validation_report.xlsx
+++ b/output/CLFS_sample_input_validation_report.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,20 +507,40 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>RULE 10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Was your main job last week a paid internship, traineeship or apprenticeship? &amp; Type of Employment?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Internship/Traineeship/Apprenticeship must be Fixed-Term contract employee</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>RULE 5</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>How much interest did you receive from savings (e.g., current and saving accounts, fixed deposits) in the last 12 months?</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Invalid interest. Must be numeric between 0 and 10 (decimals allowed).</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -535,7 +555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,6 +827,44 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CLFS_sample_input.xlsx</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>697c2c580deae81fbb49c180</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chen Jia Hui</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>RULE 10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Was your main job last week a paid internship, traineeship or apprenticeship? &amp; Type of Employment?</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Internship/Traineeship/Apprenticeship must be Fixed-Term contract employee</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/CLFS_sample_input_validation_report.xlsx
+++ b/output/CLFS_sample_input_validation_report.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,17 +467,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RULE 7</t>
+          <t>RULE 18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Employment Status as of last week &amp; Did you perform any freelance or assignment-based work via any of the following online platform(s) in the last 12 months?</t>
+          <t>Place of Birth</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mismatch: Freelance work selected but Employment Status is not Own Account Worker.</t>
+          <t>Invalid country in Others: Place of Birth</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -487,37 +487,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RULE 1 - Place of Birth</t>
+          <t>RULE 7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Place of Birth</t>
+          <t>Employment Status as of last week &amp; Did you perform any freelance or assignment-based work via any of the following online platform(s) in the last 12 months?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Others answer matches predefined option: 'India'</t>
+          <t>Mismatch: Freelance work selected but Employment Status is not Own Account Worker.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RULE 10</t>
+          <t>RULE 1 - Place of Birth</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Was your main job last week a paid internship, traineeship or apprenticeship? &amp; Type of Employment?</t>
+          <t>Place of Birth</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Internship/Traineeship/Apprenticeship must be Fixed-Term contract employee</t>
+          <t>Others answer matches predefined option: 'India'</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -527,20 +527,80 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>RULE 10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Was your main job last week a paid internship, traineeship or apprenticeship? &amp; Type of Employment?</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Internship/Traineeship/Apprenticeship must be Fixed-Term contract employee</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RULE 17</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>What is your religion?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Normalized to 'No religion'</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RULE 19</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>At any point in the last 12 months, were you self-employed? &amp; At any point in the last 12 months, did you work on your own (i.e., without paid employees) while running your own business or trade? &amp; Did you perform any freelance or assignment-based work via any of the following online platform(s) in the last 12 months?</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Freelance selected but self-employed/own-account not both Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>RULE 5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>How much interest did you receive from savings (e.g., current and saving accounts, fixed deposits) in the last 12 months?</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Invalid interest. Must be numeric between 0 and 10 (decimals allowed).</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -555,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,17 +687,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>RULE 1 - Place of Birth</t>
+          <t>RULE 17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Place of Birth</t>
+          <t>What is your religion?</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Others answer matches predefined option: 'India'</t>
+          <t>Normalized to 'No religion'</t>
         </is>
       </c>
     </row>
@@ -663,7 +723,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>RULE 1 - Place of Birth</t>
+          <t>RULE 18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -673,7 +733,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Others answer approved with RSPD confirmation (original word count: 4, now meets minimum requirement)</t>
+          <t>Invalid country in Others: Place of Birth</t>
         </is>
       </c>
     </row>
@@ -699,7 +759,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RULE 1 - Place of Birth</t>
+          <t>RULE 18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -709,7 +769,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Others answer approved with RSPD confirmation (original word count: 4, now meets minimum requirement)</t>
+          <t>Invalid country in Others: Place of Birth</t>
         </is>
       </c>
     </row>
@@ -727,9 +787,7 @@
           <t>697c21e233bb9b02fa208b14</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>handsome</t>
@@ -737,17 +795,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>RULE 5</t>
+          <t>RULE 1 - Place of Birth</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>How much interest did you receive from savings (e.g., current and saving accounts, fixed deposits) in the last 12 months?</t>
+          <t>Place of Birth</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Invalid interest. Must be numeric between 0 and 10 (decimals allowed).</t>
+          <t>Others answer matches predefined option: 'India'</t>
         </is>
       </c>
     </row>
@@ -758,34 +816,32 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>697c21e233bb9b02fa208b14</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
+          <t>697c268c100972b18200a4cb</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>handsome</t>
+          <t>Donald Trump</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RULE 7</t>
+          <t>RULE 1 - Place of Birth</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Employment Status as of last week &amp; Did you perform any freelance or assignment-based work via any of the following online platform(s) in the last 12 months?</t>
+          <t>Place of Birth</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Mismatch: Freelance work selected but Employment Status is not Own Account Worker.</t>
+          <t>Others answer approved with RSPD confirmation (original word count: 4, now meets minimum requirement)</t>
         </is>
       </c>
     </row>
@@ -796,34 +852,32 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>697c2c580deae81fbb49c180</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
+          <t>697c390afe776e2d3cb543d7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chen Jia Hui</t>
+          <t>Donald Trump</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>RULE 7</t>
+          <t>RULE 1 - Place of Birth</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Employment Status as of last week &amp; Did you perform any freelance or assignment-based work via any of the following online platform(s) in the last 12 months?</t>
+          <t>Place of Birth</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Mismatch: Freelance work selected but Employment Status is not Own Account Worker.</t>
+          <t>Others answer approved with RSPD confirmation (original word count: 4, now meets minimum requirement)</t>
         </is>
       </c>
     </row>
@@ -834,11 +888,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>697c2c580deae81fbb49c180</t>
+          <t>697c21e233bb9b02fa208b14</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -846,20 +900,172 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>handsome</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>RULE 5</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>How much interest did you receive from savings (e.g., current and saving accounts, fixed deposits) in the last 12 months?</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Invalid interest. Must be numeric between 0 and 10 (decimals allowed).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CLFS_sample_input.xlsx</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>697c21e233bb9b02fa208b14</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>handsome</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>RULE 7</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Employment Status as of last week &amp; Did you perform any freelance or assignment-based work via any of the following online platform(s) in the last 12 months?</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mismatch: Freelance work selected but Employment Status is not Own Account Worker.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CLFS_sample_input.xlsx</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>697c21e233bb9b02fa208b14</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>handsome</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>RULE 19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>At any point in the last 12 months, were you self-employed? &amp; At any point in the last 12 months, did you work on your own (i.e., without paid employees) while running your own business or trade? &amp; Did you perform any freelance or assignment-based work via any of the following online platform(s) in the last 12 months?</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Freelance selected but self-employed/own-account not both Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CLFS_sample_input.xlsx</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>697c2c580deae81fbb49c180</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Chen Jia Hui</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>RULE 7</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Employment Status as of last week &amp; Did you perform any freelance or assignment-based work via any of the following online platform(s) in the last 12 months?</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Mismatch: Freelance work selected but Employment Status is not Own Account Worker.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CLFS_sample_input.xlsx</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>697c2c580deae81fbb49c180</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Chen Jia Hui</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>RULE 10</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Was your main job last week a paid internship, traineeship or apprenticeship? &amp; Type of Employment?</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Internship/Traineeship/Apprenticeship must be Fixed-Term contract employee</t>
         </is>
